--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2087.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2087.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.563597204575356</v>
+        <v>2.607758522033691</v>
       </c>
       <c r="B1">
-        <v>3.641861714573287</v>
+        <v>3.168262958526611</v>
       </c>
       <c r="C1">
-        <v>3.239193097501212</v>
+        <v>2.784998178482056</v>
       </c>
       <c r="D1">
-        <v>3.56334446487474</v>
+        <v>3.027395486831665</v>
       </c>
       <c r="E1">
-        <v>1.638409692802411</v>
+        <v>2.550008058547974</v>
       </c>
     </row>
   </sheetData>
